--- a/20250311/1.xlsx
+++ b/20250311/1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\cycu_oop_1132_11022143\20250311\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7214A47F-A60A-41CD-B31B-F1D00984BF6C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{349D5430-C956-45A1-9D89-85CE5160486F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{1BB604EE-2EF3-43BC-93DC-6C9F0EE25BDA}"/>
   </bookViews>
